--- a/similarities/split_global/harmonic_similarity_timestamps_398.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_398.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:27.360000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:00:10.160000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:23.180000', '0:00:30.140000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:13.300000', '0:00:19.020000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=23.18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=13.3</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:04.840000', '0:00:10.640000'), ('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:46.900000', '0:00:59.640000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000'), ('0:00:24.680000', '0:00:31.240000')]</t>
+          <t>('0:00:24.680000', '0:00:31.820000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=46.9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=24.68</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
+          <t>['Eb', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['G:maj', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:45.484263', '0:00:57.976598')]</t>
+          <t>('0:01:05.970000', '0:01:10.650000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:34.866000', '0:01:03.543000')]</t>
+          <t>('0:01:06.740000', '0:01:10.240000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=45.484263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=65.97</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=66.74</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:min', 'G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:11.129160', '0:00:21.125350')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:47.140000', '0:00:59.700000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=11.12916</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=47.14</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:14.100000', '0:01:20.040000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'G/5', 'D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:18.434000', '0:00:23.353000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:52.020000', '0:01:00.860000')]</t>
+          <t>('0:00:00.421247', '0:00:04.824512')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=18.434']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:00:02.660000', '0:00:07.980000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
+          <t>['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['Ab', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:30.531803', '0:00:36.267131')]</t>
+          <t>('0:01:18.460000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.840000', '0:00:16.860000')]</t>
+          <t>('0:02:09.720000', '0:02:17.860000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=30.531803']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=78.46</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=8.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=129.72</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_174</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+          <t>('0:00:32.480000', '0:00:45.820000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:01:38.700000', '0:01:58.800000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['G', 'A:7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['Ab:maj', 'Bb:7', 'Eb:7', 'Ab:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.040000'), ('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:00.560000', '0:00:11.630000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48'), ('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:02:06.605000', '0:02:10.738000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=0.56</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=126.605</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>isophonics_168</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:7', 'Db:7']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:7']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:32.390000', '0:00:40.540000')]</t>
+          <t>('0:00:11.260000', '0:00:13.160000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:14.980000', '0:00:22.790000')]</t>
+          <t>('0:00:10.779093', '0:00:14.076327')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=32.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=11.26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=14.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=10.779093</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C', 'F', 'C', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:00:54.180000', '0:01:05.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:01:04.514625', '0:01:32.970680')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:37.720000', '0:01:54.060000')]</t>
+          <t>('0:00:19.200000', '0:00:21.840000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:11.060000', '0:00:18.800000')]</t>
+          <t>('0:04:21.680000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=97.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=19.2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=11.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=261.68</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
